--- a/biology/Zoologie/Cuvierichelys/Cuvierichelys.xlsx
+++ b/biology/Zoologie/Cuvierichelys/Cuvierichelys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuvierichelys est un genre éteint de tortues de la super-famille des Testudinoidea.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cuvierichelys a été créé en 2004 par la paléontologue française Sophie Hervet (d) avec pour espèce type Cuvierichelys parisiensis[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cuvierichelys a été créé en 2004 par la paléontologue française Sophie Hervet (d) avec pour espèce type Cuvierichelys parisiensis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (17 juillet 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (17 juillet 2021) :
 † Cuvierichelys crassa (Owen, 1849) - Éocène du Royaume-Uni
 † Cuvierichelys iberica (Bergounioux, 1958) - Oligocène de l'Espagne
 † Cuvierichelys parisiensis (Gray, 1831) - Éocène de France et du Royaume-Uni</t>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Cuvierichelys est dédié au zoologiste et paléontologue français Georges Cuvier (1769–1832) pour ses découvertes dans le gypse de Montmartre[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Cuvierichelys est dédié au zoologiste et paléontologue français Georges Cuvier (1769–1832) pour ses découvertes dans le gypse de Montmartre.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sophie Hervet, « Systématique du groupe « Palaeochelys sensu lato – Mauremys » (Chelonii, Testudinoidea) du Tertiaire d’Europe occidentale : principaux résultats », Annales de Paléontologie, Elsevier, vol. 90, no 1,‎ janvier 2004, p. 13-78 (ISSN 0753-3969, 1778-3666 et 0003-4142, OCLC 8770809, DOI 10.1016/J.ANNPAL.2003.12.002)</t>
         </is>
